--- a/BSA-I/01-BSA-Decomposition/src/HC/ex02_HC_glossary.xlsx
+++ b/BSA-I/01-BSA-Decomposition/src/HC/ex02_HC_glossary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0x001\Desktop\BSA00_Decomposition-1-develop\src\HC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL-Projects\Solo-Leveling-21\BSA-I\01-BSA-Decomposition\src\HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD37B3-61D4-4A1C-8837-D09D4FE3FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7419367-A57C-47E5-B63B-F0A8BFDD83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D8B54D4-56D3-4C17-83B0-3E23CB6B96F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Понятие</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Выбирается клиентом при записи.</t>
-  </si>
-  <si>
-    <t>BSA 00, 10.01.25</t>
   </si>
   <si>
     <t>BSA 00, 13.01.25</t>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68969EAC-7968-4ED8-BCD5-BDD7C68391AB}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="122" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="122" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -701,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>20</v>
@@ -721,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>24</v>
@@ -741,7 +738,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -761,7 +758,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>32</v>
@@ -781,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>35</v>
@@ -801,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
@@ -821,7 +818,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>41</v>
